--- a/VKTX.xlsx
+++ b/VKTX.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3DF681-C800-6F43-9B99-C46769A71C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6944C6CF-5CDC-4DEB-BEF3-728FF9E35079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37060" yWindow="800" windowWidth="23760" windowHeight="18280" activeTab="1" xr2:uid="{D878BE86-2F5F-0A4D-A519-F89662502C45}"/>
+    <workbookView xWindow="-50220" yWindow="1860" windowWidth="22875" windowHeight="18315" xr2:uid="{D878BE86-2F5F-0A4D-A519-F89662502C45}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="3" r:id="rId2"/>
     <sheet name="VK2735" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -199,11 +199,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -212,10 +212,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,6 +231,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,6 +241,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -340,53 +362,63 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{A4056E29-18B3-4CCA-AB49-400B65BE6EE5}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -783,156 +815,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040B3CA5-3820-9A43-941C-559CF5F28934}">
   <dimension ref="B2:L9"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="10" customWidth="1"/>
+    <col min="2" max="3" width="11" style="10"/>
+    <col min="4" max="4" width="13" style="10" customWidth="1"/>
+    <col min="5" max="9" width="11" style="10"/>
+    <col min="10" max="10" width="8.25" style="10" customWidth="1"/>
+    <col min="11" max="12" width="8.375" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="11" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="10">
-        <v>88</v>
+      <c r="K2" s="23">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="J3" t="s">
+      <c r="H3" s="25"/>
+      <c r="J3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="10">
         <f>100+4</f>
         <v>104</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="J4" t="s">
+      <c r="B4" s="24"/>
+      <c r="H4" s="25"/>
+      <c r="J4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="15">
         <f>+K2*K3</f>
-        <v>9152</v>
+        <v>6656</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
-      <c r="J5" t="s">
+      <c r="B5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="J5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="10">
         <f>361+350</f>
         <v>711</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
-      <c r="J6" t="s">
+      <c r="B6" s="24"/>
+      <c r="H6" s="25"/>
+      <c r="J6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="10">
         <v>0</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-      <c r="J7" t="s">
+      <c r="B7" s="24"/>
+      <c r="H7" s="25"/>
+      <c r="J7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="15">
         <f>+K4-K5+K6</f>
-        <v>8441</v>
+        <v>5945</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
+      <c r="B8" s="24"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -943,621 +955,625 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78BA437-81C4-AF4A-A9DD-BDF3BE4300E7}">
   <dimension ref="A1:BD14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.83203125" style="13"/>
+    <col min="1" max="1" width="5.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.875" style="11"/>
+    <col min="6" max="16384" width="11" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="C2" s="13">
+      <c r="C2" s="11">
         <v>2024</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="11">
         <f>+C2+1</f>
         <v>2025</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="11">
         <f t="shared" ref="E2:Q2" si="0">+D2+1</f>
         <v>2026</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="10">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="10">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="10">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="10">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="10">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="10">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="10">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="10">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="10">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="10">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="10">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="10">
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:56" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="14">
         <v>800</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="14">
         <v>2500</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="14">
         <v>5500</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="14">
         <v>7000</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="14">
         <v>9000</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="14">
         <f>+K3*1.05</f>
         <v>9450</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="14">
         <f t="shared" ref="M3:P3" si="1">+L3*1.05</f>
         <v>9922.5</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="14">
         <f t="shared" si="1"/>
         <v>10418.625</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="14">
         <f t="shared" si="1"/>
         <v>10939.55625</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="14">
         <f t="shared" si="1"/>
         <v>11486.534062500001</v>
       </c>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="10">
         <f>+G3*0.2</f>
         <v>160</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="15">
         <f t="shared" ref="H4:J4" si="2">+H3*0.2</f>
         <v>500</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="15">
         <f t="shared" si="2"/>
         <v>1100</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="15">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="15">
         <f t="shared" ref="K4" si="3">+K3*0.2</f>
         <v>1800</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="15">
         <f t="shared" ref="L4" si="4">+L3*0.2</f>
         <v>1890</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="15">
         <f t="shared" ref="M4" si="5">+M3*0.2</f>
         <v>1984.5</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="15">
         <f t="shared" ref="N4" si="6">+N3*0.2</f>
         <v>2083.7249999999999</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="15">
         <f t="shared" ref="O4" si="7">+O3*0.2</f>
         <v>2187.9112500000001</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="15">
         <f t="shared" ref="P4" si="8">+P3*0.2</f>
         <v>2297.3068125000004</v>
       </c>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <f>+G3-G4</f>
         <v>640</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="15">
         <f t="shared" ref="H5:J5" si="9">+H3-H4</f>
         <v>2000</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="15">
         <f t="shared" si="9"/>
         <v>4400</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="15">
         <f t="shared" si="9"/>
         <v>5600</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="15">
         <f t="shared" ref="K5" si="10">+K3-K4</f>
         <v>7200</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="15">
         <f t="shared" ref="L5" si="11">+L3-L4</f>
         <v>7560</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="15">
         <f t="shared" ref="M5" si="12">+M3-M4</f>
         <v>7938</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="15">
         <f t="shared" ref="N5" si="13">+N3-N4</f>
         <v>8334.9</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="15">
         <f t="shared" ref="O5" si="14">+O3-O4</f>
         <v>8751.6450000000004</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="15">
         <f t="shared" ref="P5" si="15">+P3-P4</f>
         <v>9189.2272499999999</v>
       </c>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="15">
         <v>2000</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="15">
         <v>1500</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="15">
         <v>1000</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="15">
         <v>1000</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="15">
         <v>1000</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="15">
         <v>1000</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="15">
         <v>1000</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="15">
         <v>1000</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="15">
         <v>1000</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="15">
         <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="10">
         <v>-500</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="10">
         <v>-500</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="10">
         <v>-500</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="10">
         <v>-500</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="15">
         <f>+G5-G6</f>
         <v>-1360</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="15">
         <f t="shared" ref="H7:P7" si="16">+H5-H6</f>
         <v>500</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="15">
         <f t="shared" si="16"/>
         <v>3400</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="15">
         <f t="shared" si="16"/>
         <v>4600</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="15">
         <f t="shared" si="16"/>
         <v>6200</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="15">
         <f t="shared" si="16"/>
         <v>6560</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="15">
         <f t="shared" si="16"/>
         <v>6938</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="15">
         <f t="shared" si="16"/>
         <v>7334.9</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O7" s="15">
         <f t="shared" si="16"/>
         <v>7751.6450000000004</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="15">
         <f t="shared" si="16"/>
         <v>8189.2272499999999</v>
       </c>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15">
         <v>0</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="15">
         <f>+I7*0.1</f>
         <v>340</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="15">
         <f>+J7*0.2</f>
         <v>920</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="15">
         <f t="shared" ref="K8:P8" si="17">+K7*0.2</f>
         <v>1240</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="15">
         <f t="shared" si="17"/>
         <v>1312</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="15">
         <f t="shared" si="17"/>
         <v>1387.6000000000001</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="15">
         <f t="shared" si="17"/>
         <v>1466.98</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O8" s="15">
         <f t="shared" si="17"/>
         <v>1550.3290000000002</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="15">
         <f t="shared" si="17"/>
         <v>1637.84545</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="16">
         <f>+C7-C8</f>
         <v>-500</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="16">
         <f t="shared" ref="D9:P9" si="18">+D7-D8</f>
         <v>-500</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="16">
         <f t="shared" si="18"/>
         <v>-500</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="16">
         <f t="shared" si="18"/>
         <v>-500</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="16">
         <f t="shared" si="18"/>
         <v>-1360</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="16">
         <f t="shared" si="18"/>
         <v>500</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="16">
         <f t="shared" si="18"/>
         <v>3060</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="16">
         <f t="shared" si="18"/>
         <v>3680</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="16">
         <f t="shared" si="18"/>
         <v>4960</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="16">
         <f t="shared" si="18"/>
         <v>5248</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="16">
         <f t="shared" si="18"/>
         <v>5550.4</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="16">
         <f t="shared" si="18"/>
         <v>5867.92</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O9" s="16">
         <f t="shared" si="18"/>
         <v>6201.3160000000007</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="16">
         <f t="shared" si="18"/>
         <v>6551.3818000000001</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="16">
         <f>+P9*(1+$C$13)</f>
         <v>6223.8127100000002</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R9" s="16">
         <f t="shared" ref="R9:BD9" si="19">+Q9*(1+$C$13)</f>
         <v>5912.6220745000001</v>
       </c>
-      <c r="S9" s="22">
+      <c r="S9" s="16">
         <f t="shared" si="19"/>
         <v>5616.9909707749994</v>
       </c>
-      <c r="T9" s="22">
+      <c r="T9" s="16">
         <f t="shared" si="19"/>
         <v>5336.1414222362491</v>
       </c>
-      <c r="U9" s="22">
+      <c r="U9" s="16">
         <f t="shared" si="19"/>
         <v>5069.3343511244366</v>
       </c>
-      <c r="V9" s="22">
+      <c r="V9" s="16">
         <f t="shared" si="19"/>
         <v>4815.8676335682148</v>
       </c>
-      <c r="W9" s="22">
+      <c r="W9" s="16">
         <f t="shared" si="19"/>
         <v>4575.0742518898041</v>
       </c>
-      <c r="X9" s="22">
+      <c r="X9" s="16">
         <f t="shared" si="19"/>
         <v>4346.3205392953141</v>
       </c>
-      <c r="Y9" s="22">
+      <c r="Y9" s="16">
         <f t="shared" si="19"/>
         <v>4129.0045123305481</v>
       </c>
-      <c r="Z9" s="22">
+      <c r="Z9" s="16">
         <f t="shared" si="19"/>
         <v>3922.5542867140207</v>
       </c>
-      <c r="AA9" s="22">
+      <c r="AA9" s="16">
         <f t="shared" si="19"/>
         <v>3726.4265723783196</v>
       </c>
-      <c r="AB9" s="22">
+      <c r="AB9" s="16">
         <f t="shared" si="19"/>
         <v>3540.1052437594035</v>
       </c>
-      <c r="AC9" s="22">
+      <c r="AC9" s="16">
         <f t="shared" si="19"/>
         <v>3363.0999815714331</v>
       </c>
-      <c r="AD9" s="22">
+      <c r="AD9" s="16">
         <f t="shared" si="19"/>
         <v>3194.9449824928611</v>
       </c>
-      <c r="AE9" s="22">
+      <c r="AE9" s="16">
         <f t="shared" si="19"/>
         <v>3035.197733368218</v>
       </c>
-      <c r="AF9" s="22">
+      <c r="AF9" s="16">
         <f t="shared" si="19"/>
         <v>2883.4378466998069</v>
       </c>
-      <c r="AG9" s="22">
+      <c r="AG9" s="16">
         <f t="shared" si="19"/>
         <v>2739.2659543648165</v>
       </c>
-      <c r="AH9" s="22">
+      <c r="AH9" s="16">
         <f t="shared" si="19"/>
         <v>2602.3026566465755</v>
       </c>
-      <c r="AI9" s="22">
+      <c r="AI9" s="16">
         <f t="shared" si="19"/>
         <v>2472.1875238142466</v>
       </c>
-      <c r="AJ9" s="22">
+      <c r="AJ9" s="16">
         <f t="shared" si="19"/>
         <v>2348.5781476235343</v>
       </c>
-      <c r="AK9" s="22">
+      <c r="AK9" s="16">
         <f t="shared" si="19"/>
         <v>2231.1492402423573</v>
       </c>
-      <c r="AL9" s="22">
+      <c r="AL9" s="16">
         <f t="shared" si="19"/>
         <v>2119.5917782302395</v>
       </c>
-      <c r="AM9" s="22">
+      <c r="AM9" s="16">
         <f t="shared" si="19"/>
         <v>2013.6121893187274</v>
       </c>
-      <c r="AN9" s="22">
+      <c r="AN9" s="16">
         <f t="shared" si="19"/>
         <v>1912.9315798527909</v>
       </c>
-      <c r="AO9" s="22">
+      <c r="AO9" s="16">
         <f t="shared" si="19"/>
         <v>1817.2850008601513</v>
       </c>
-      <c r="AP9" s="22">
+      <c r="AP9" s="16">
         <f t="shared" si="19"/>
         <v>1726.4207508171437</v>
       </c>
-      <c r="AQ9" s="22">
+      <c r="AQ9" s="16">
         <f t="shared" si="19"/>
         <v>1640.0997132762864</v>
       </c>
-      <c r="AR9" s="22">
+      <c r="AR9" s="16">
         <f t="shared" si="19"/>
         <v>1558.0947276124721</v>
       </c>
-      <c r="AS9" s="22">
+      <c r="AS9" s="16">
         <f t="shared" si="19"/>
         <v>1480.1899912318484</v>
       </c>
-      <c r="AT9" s="22">
+      <c r="AT9" s="16">
         <f t="shared" si="19"/>
         <v>1406.1804916702558</v>
       </c>
-      <c r="AU9" s="22">
+      <c r="AU9" s="16">
         <f t="shared" si="19"/>
         <v>1335.871467086743</v>
       </c>
-      <c r="AV9" s="22">
+      <c r="AV9" s="16">
         <f t="shared" si="19"/>
         <v>1269.0778937324058</v>
       </c>
-      <c r="AW9" s="22">
+      <c r="AW9" s="16">
         <f t="shared" si="19"/>
         <v>1205.6239990457855</v>
       </c>
-      <c r="AX9" s="22">
+      <c r="AX9" s="16">
         <f t="shared" si="19"/>
         <v>1145.3427990934961</v>
       </c>
-      <c r="AY9" s="22">
+      <c r="AY9" s="16">
         <f t="shared" si="19"/>
         <v>1088.0756591388213</v>
       </c>
-      <c r="AZ9" s="22">
+      <c r="AZ9" s="16">
         <f t="shared" si="19"/>
         <v>1033.6718761818802</v>
       </c>
-      <c r="BA9" s="22">
+      <c r="BA9" s="16">
         <f t="shared" si="19"/>
         <v>981.9882823727861</v>
       </c>
-      <c r="BB9" s="22">
+      <c r="BB9" s="16">
         <f t="shared" si="19"/>
         <v>932.8888682541467</v>
       </c>
-      <c r="BC9" s="22">
+      <c r="BC9" s="16">
         <f t="shared" si="19"/>
         <v>886.24442484143935</v>
       </c>
-      <c r="BD9" s="22">
+      <c r="BD9" s="16">
         <f t="shared" si="19"/>
         <v>841.93220359936731</v>
       </c>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="16">
         <f>NPV(C12,C9:DP9)+Main!K5-Main!K6</f>
         <v>24209.42128016358</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="B12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="17">
         <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="B13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="17">
         <v>-0.05</v>
       </c>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="B14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="18">
         <f>+C11/Main!K3</f>
         <v>232.7828969246498</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{67F4F692-AAE8-42BB-8401-02E8E9ED075E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1568,18 +1584,18 @@
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -1587,7 +1603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>35</v>
       </c>
@@ -1595,136 +1611,136 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="8">
         <v>11744873</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C6" s="12" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D7" s="13" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8">
         <v>-1.8</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="4">
         <f t="shared" ref="E8:E11" si="0">+D8*2.2</f>
         <v>-3.9600000000000004</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>-20.239999999999998</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="6">
         <v>0.09</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>22</v>
       </c>
       <c r="D10">
         <v>-10.7</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>-23.54</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="6">
         <v>0.17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>23</v>
       </c>
       <c r="D11">
         <v>-13.3</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>-29.260000000000005</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="6">
         <v>0.17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="1">
         <v>-14.6</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="5">
         <f>+D12*2.2</f>
         <v>-32.120000000000005</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="6">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="6">
         <v>0.43</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="6">
         <v>0.18</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C19" s="12" t="s">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D20" s="13" t="s">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E20" t="s">
@@ -1734,52 +1750,52 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="7">
         <v>-12.8</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="3">
         <v>-2.7</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="6">
         <v>0.25</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="6">
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="6">
         <v>0.33</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="6">
         <v>0.11</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="6">
         <v>0.31</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="6">
         <v>0.12</v>
       </c>
     </row>
